--- a/Case2.xlsx
+++ b/Case2.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/JavaWorkspace/InterfaceTest/testCase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11775" yWindow="2535" windowWidth="21780" windowHeight="13740"/>
+    <workbookView xWindow="7080" yWindow="3420" windowWidth="21780" windowHeight="13740"/>
   </bookViews>
   <sheets>
-    <sheet name="testCase" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="83">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,14 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http.post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.testingedu.com.cn/inter/HTTP/auth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,18 +64,6 @@
   </si>
   <si>
     <t>${token}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http.send</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,81 +481,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取用户信息</t>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP//getUserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted1</t>
+  </si>
+  <si>
+    <t>ted1555555</t>
+  </si>
+  <si>
+    <t>ted1@</t>
+  </si>
+  <si>
+    <t>ted1ted1</t>
+  </si>
+  <si>
+    <t>ted1ted1ted1</t>
+  </si>
+  <si>
+    <t>ted55555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建会话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.testingedu.com.cn/inter/HTTP//getUserInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ted1</t>
-  </si>
-  <si>
-    <t>ted1555555</t>
-  </si>
-  <si>
-    <t>ted1@</t>
-  </si>
-  <si>
-    <t>ted1ted1</t>
-  </si>
-  <si>
-    <t>ted1ted1ted1</t>
-  </si>
-  <si>
-    <t>ted55555</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重开会话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重建会话</t>
+    <t>授权接口2</t>
+    <rPh sb="0" eb="1">
+      <t>sou'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,25 +894,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -958,1676 +930,1520 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>123456</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
         <v>20</v>
       </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
         <v>17</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
         <v>20</v>
       </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2"/>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="E50">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
-      </c>
-      <c r="I51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" t="s">
-        <v>35</v>
-      </c>
-      <c r="I56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="E57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>43</v>
-      </c>
-      <c r="E65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" t="s">
         <v>17</v>
       </c>
-      <c r="D75" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="D77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="E78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E85">
         <v>123456</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="E86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D88" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E89">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="I92" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>54</v>
+      </c>
+      <c r="E93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="E94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="E96">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>58</v>
-      </c>
-      <c r="E97">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E98" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>60</v>
-      </c>
-      <c r="E99" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="E99">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="E101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" t="s">
         <v>57</v>
       </c>
-      <c r="E104" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" t="s">
         <v>63</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="E105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
         <v>63</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>59</v>
-      </c>
-      <c r="E106" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="E106">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" t="s">
         <v>63</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E107" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" t="s">
         <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="E108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
         <v>63</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
         <v>63</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="E110">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="2"/>
-      <c r="B112" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" t="s">
-        <v>57</v>
-      </c>
-      <c r="E112" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="2"/>
-      <c r="B113" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" t="s">
-        <v>58</v>
-      </c>
-      <c r="E113">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="2"/>
-      <c r="B114" t="s">
-        <v>64</v>
-      </c>
-      <c r="C114" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="2"/>
-      <c r="B115" t="s">
-        <v>64</v>
-      </c>
-      <c r="C115" t="s">
-        <v>65</v>
-      </c>
-      <c r="D115" t="s">
-        <v>60</v>
-      </c>
-      <c r="E115" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="2"/>
-      <c r="B116" t="s">
-        <v>64</v>
-      </c>
-      <c r="C116" t="s">
-        <v>70</v>
-      </c>
-      <c r="D116" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="2"/>
-      <c r="B117" t="s">
-        <v>64</v>
-      </c>
-      <c r="C117" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="2"/>
-      <c r="B118" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="2"/>
-      <c r="B119" t="s">
-        <v>68</v>
-      </c>
-      <c r="C119" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="2"/>
-      <c r="B120" t="s">
-        <v>68</v>
-      </c>
-      <c r="C120" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" t="s">
-        <v>57</v>
-      </c>
-      <c r="E120" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="2"/>
-      <c r="B121" t="s">
-        <v>68</v>
-      </c>
-      <c r="C121" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" t="s">
-        <v>58</v>
-      </c>
-      <c r="E121">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="2"/>
-      <c r="B122" t="s">
-        <v>68</v>
-      </c>
-      <c r="C122" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" t="s">
-        <v>59</v>
-      </c>
-      <c r="E122" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="2"/>
-      <c r="B123" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" t="s">
-        <v>65</v>
-      </c>
-      <c r="D123" t="s">
-        <v>60</v>
-      </c>
-      <c r="E123" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="2"/>
-      <c r="B124" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" t="s">
-        <v>70</v>
-      </c>
-      <c r="D124" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="2"/>
-      <c r="B125" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="2"/>
-      <c r="B126" t="s">
-        <v>68</v>
-      </c>
-      <c r="C126" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A91:A126"/>
-    <mergeCell ref="A8:A47"/>
+    <mergeCell ref="A80:A111"/>
+    <mergeCell ref="A8:A42"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A48:A75"/>
-    <mergeCell ref="A76:A90"/>
+    <mergeCell ref="A43:A66"/>
+    <mergeCell ref="A67:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2636,98 +2452,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Case2.xlsx
+++ b/Case2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/JavaWorkspace/InterfaceTest/testCase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/JavaWorkspace/InterfaceTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="3420" windowWidth="21780" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="84">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,6 +535,10 @@
   </si>
   <si>
     <t>查询用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,11 +585,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -897,9 +904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -937,7 +944,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -951,7 +958,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -960,7 +967,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -972,7 +979,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,7 +991,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -999,7 +1006,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,7 +1018,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B8" t="s">
@@ -1025,7 +1032,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1047,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1052,7 +1059,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1067,7 +1074,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1082,7 +1089,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -1097,7 +1104,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1109,7 +1116,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -1121,7 +1128,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -1136,7 +1143,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1151,7 +1158,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -1166,7 +1173,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +1188,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1193,7 +1200,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1208,7 +1215,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1230,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -1238,7 +1245,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -1253,7 +1260,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -1265,7 +1272,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>26</v>
       </c>
@@ -1280,7 +1287,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -1295,7 +1302,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -1310,7 +1317,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -1325,7 +1332,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -1337,7 +1344,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>27</v>
       </c>
@@ -1352,7 +1359,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1374,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>34</v>
       </c>
@@ -1379,7 +1386,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -1388,7 +1395,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>34</v>
       </c>
@@ -1400,7 +1407,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>34</v>
       </c>
@@ -1412,7 +1419,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -1427,7 +1434,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>34</v>
       </c>
@@ -1442,7 +1449,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>34</v>
       </c>
@@ -1454,7 +1461,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>34</v>
       </c>
@@ -1469,7 +1476,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" t="s">
         <v>34</v>
       </c>
@@ -1484,7 +1491,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" t="s">
         <v>34</v>
       </c>
@@ -1499,7 +1506,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B43" t="s">
@@ -1513,7 +1520,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>28</v>
       </c>
@@ -1525,7 +1532,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" t="s">
         <v>28</v>
       </c>
@@ -1534,7 +1541,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" t="s">
         <v>28</v>
       </c>
@@ -1546,7 +1553,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" t="s">
         <v>28</v>
       </c>
@@ -1558,7 +1565,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>28</v>
       </c>
@@ -1573,7 +1580,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -1585,7 +1592,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" t="s">
         <v>28</v>
       </c>
@@ -1600,7 +1607,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" t="s">
         <v>28</v>
       </c>
@@ -1615,7 +1622,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" t="s">
         <v>36</v>
       </c>
@@ -1630,7 +1637,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" t="s">
         <v>36</v>
       </c>
@@ -1645,7 +1652,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" t="s">
         <v>36</v>
       </c>
@@ -1657,7 +1664,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>36</v>
       </c>
@@ -1672,7 +1679,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" t="s">
         <v>36</v>
       </c>
@@ -1681,7 +1688,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1703,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" t="s">
         <v>36</v>
       </c>
@@ -1708,7 +1715,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" t="s">
         <v>36</v>
       </c>
@@ -1723,7 +1730,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" t="s">
         <v>36</v>
       </c>
@@ -1738,7 +1745,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>36</v>
       </c>
@@ -1750,7 +1757,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" t="s">
         <v>36</v>
       </c>
@@ -1762,7 +1769,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" t="s">
         <v>47</v>
       </c>
@@ -1777,7 +1784,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" t="s">
         <v>47</v>
       </c>
@@ -1789,7 +1796,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" t="s">
         <v>47</v>
       </c>
@@ -1804,7 +1811,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" t="s">
         <v>47</v>
       </c>
@@ -1819,7 +1826,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B67" t="s">
@@ -1833,7 +1840,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" t="s">
         <v>32</v>
       </c>
@@ -1842,7 +1849,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" t="s">
         <v>32</v>
       </c>
@@ -1854,7 +1861,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>32</v>
       </c>
@@ -1866,7 +1873,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" t="s">
         <v>32</v>
       </c>
@@ -1878,7 +1885,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" t="s">
         <v>32</v>
       </c>
@@ -1893,7 +1900,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>32</v>
       </c>
@@ -1908,7 +1915,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" t="s">
         <v>44</v>
       </c>
@@ -1923,7 +1930,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" t="s">
         <v>44</v>
       </c>
@@ -1938,7 +1945,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" t="s">
         <v>44</v>
       </c>
@@ -1950,7 +1957,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" t="s">
         <v>44</v>
       </c>
@@ -1962,7 +1969,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" t="s">
         <v>44</v>
       </c>
@@ -1977,7 +1984,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" t="s">
         <v>44</v>
       </c>
@@ -1992,7 +1999,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -2006,7 +2013,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" t="s">
         <v>51</v>
       </c>
@@ -2015,7 +2022,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" t="s">
         <v>51</v>
       </c>
@@ -2027,7 +2034,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" t="s">
         <v>51</v>
       </c>
@@ -2039,7 +2046,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" t="s">
         <v>51</v>
       </c>
@@ -2051,7 +2058,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" t="s">
         <v>51</v>
       </c>
@@ -2066,7 +2073,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" t="s">
         <v>51</v>
       </c>
@@ -2081,7 +2088,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" t="s">
         <v>51</v>
       </c>
@@ -2096,7 +2103,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" t="s">
         <v>51</v>
       </c>
@@ -2108,7 +2115,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" t="s">
         <v>51</v>
       </c>
@@ -2123,7 +2130,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" t="s">
         <v>51</v>
       </c>
@@ -2138,7 +2145,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" t="s">
         <v>58</v>
       </c>
@@ -2153,7 +2160,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" t="s">
         <v>58</v>
       </c>
@@ -2165,7 +2172,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" t="s">
         <v>58</v>
       </c>
@@ -2180,7 +2187,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" t="s">
         <v>58</v>
       </c>
@@ -2195,7 +2202,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" t="s">
         <v>58</v>
       </c>
@@ -2207,7 +2214,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" t="s">
         <v>58</v>
       </c>
@@ -2222,7 +2229,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" t="s">
         <v>58</v>
       </c>
@@ -2237,7 +2244,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" t="s">
         <v>59</v>
       </c>
@@ -2252,7 +2259,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
+      <c r="A99" s="3"/>
       <c r="B99" t="s">
         <v>59</v>
       </c>
@@ -2267,7 +2274,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
+      <c r="A100" s="3"/>
       <c r="B100" t="s">
         <v>59</v>
       </c>
@@ -2279,7 +2286,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
+      <c r="A101" s="3"/>
       <c r="B101" t="s">
         <v>59</v>
       </c>
@@ -2294,7 +2301,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
+      <c r="A102" s="3"/>
       <c r="B102" t="s">
         <v>59</v>
       </c>
@@ -2306,7 +2313,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
+      <c r="A103" s="3"/>
       <c r="B103" t="s">
         <v>59</v>
       </c>
@@ -2321,7 +2328,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
+      <c r="A104" s="3"/>
       <c r="B104" t="s">
         <v>59</v>
       </c>
@@ -2336,7 +2343,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
+      <c r="A105" s="3"/>
       <c r="B105" t="s">
         <v>63</v>
       </c>
@@ -2351,7 +2358,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
+      <c r="A106" s="3"/>
       <c r="B106" t="s">
         <v>63</v>
       </c>
@@ -2366,7 +2373,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
+      <c r="A107" s="3"/>
       <c r="B107" t="s">
         <v>63</v>
       </c>
@@ -2381,7 +2388,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
+      <c r="A108" s="3"/>
       <c r="B108" t="s">
         <v>63</v>
       </c>
@@ -2396,7 +2403,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
+      <c r="A109" s="3"/>
       <c r="B109" t="s">
         <v>63</v>
       </c>
@@ -2408,7 +2415,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
+      <c r="A110" s="3"/>
       <c r="B110" t="s">
         <v>63</v>
       </c>
@@ -2423,7 +2430,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
+      <c r="A111" s="3"/>
       <c r="B111" t="s">
         <v>63</v>
       </c>
@@ -2453,10 +2460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2488,7 +2495,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2502,7 +2509,6 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>80</v>
       </c>
@@ -2511,7 +2517,6 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
@@ -2523,7 +2528,6 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
@@ -2535,7 +2539,6 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>80</v>
       </c>
@@ -2550,7 +2553,6 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>80</v>
       </c>
@@ -2561,10 +2563,40 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="1">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
